--- a/ScenarioElements.xlsx
+++ b/ScenarioElements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jg/development/julia/RSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{198CF2EC-AB4B-6C49-A052-ED8AA33712FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3E56231-7CC0-B044-8AB4-B7C59A6200FD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58520" yWindow="600" windowWidth="28040" windowHeight="17040" xr2:uid="{D69B9473-09EF-FB47-A30D-86F8C22C4E80}"/>
+    <workbookView xWindow="59660" yWindow="0" windowWidth="22880" windowHeight="27840" activeTab="3" xr2:uid="{D69B9473-09EF-FB47-A30D-86F8C22C4E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Tags" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="219">
   <si>
     <t>id</t>
   </si>
@@ -39,15 +39,9 @@
     <t>xsiType</t>
   </si>
   <si>
-    <t>attr</t>
-  </si>
-  <si>
     <t>attrs</t>
   </si>
   <si>
-    <t>attribute</t>
-  </si>
-  <si>
     <t>values</t>
   </si>
   <si>
@@ -375,9 +369,6 @@
     <t>EmphysemaSeverity</t>
   </si>
   <si>
-    <t>1-2-3</t>
-  </si>
-  <si>
     <t>ChronicPericardialEffusionData</t>
   </si>
   <si>
@@ -402,9 +393,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
     <t>ConditionsFile</t>
   </si>
   <si>
@@ -421,6 +409,282 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>xmlns</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>xmlsn:xsi</t>
+  </si>
+  <si>
+    <t>xsdVersion</t>
+  </si>
+  <si>
+    <t>contentVersion</t>
+  </si>
+  <si>
+    <t>xsi:schemaLocation</t>
+  </si>
+  <si>
+    <t>8-9-10-11-12</t>
+  </si>
+  <si>
+    <t>ChronicVentricularSystolicDysfunctionData</t>
+  </si>
+  <si>
+    <t>EnvironmentDataRequestData</t>
+  </si>
+  <si>
+    <t>1-2-7</t>
+  </si>
+  <si>
+    <t>EquipmentDataRequestData</t>
+  </si>
+  <si>
+    <t>SubstanceDataRequestData</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>1-2-7-13</t>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+  </si>
+  <si>
+    <t>SerializeStateData</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>AcuteStressData</t>
+  </si>
+  <si>
+    <t>ApneaData</t>
+  </si>
+  <si>
+    <t>AirwayObstructionData</t>
+  </si>
+  <si>
+    <t>AsthmaAttackData</t>
+  </si>
+  <si>
+    <t>BrainInjuryData</t>
+  </si>
+  <si>
+    <t>BronchoconstrictionData</t>
+  </si>
+  <si>
+    <t>CardiacArrestData</t>
+  </si>
+  <si>
+    <t>ExerciseData</t>
+  </si>
+  <si>
+    <t>HemorrhageData</t>
+  </si>
+  <si>
+    <t>PericardialEffusionData</t>
+  </si>
+  <si>
+    <t>TensionPneumothoraxData</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>ChestCompressionForceData</t>
+  </si>
+  <si>
+    <t>ChestCompressionForceScaleData</t>
+  </si>
+  <si>
+    <t>ChestOcclusiveDressingData</t>
+  </si>
+  <si>
+    <t>14-15</t>
+  </si>
+  <si>
+    <t>ConsciousRespirationData</t>
+  </si>
+  <si>
+    <t>ForcedExhaleData</t>
+  </si>
+  <si>
+    <t>ForcedInhaleData</t>
+  </si>
+  <si>
+    <t>UseInhalerData</t>
+  </si>
+  <si>
+    <t>BreathHoldData</t>
+  </si>
+  <si>
+    <t>IntubationData</t>
+  </si>
+  <si>
+    <t>MechanicalVentilationData</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>NeedleDecompressionData</t>
+  </si>
+  <si>
+    <t>UrinateData</t>
+  </si>
+  <si>
+    <t>SubstanceBolusData</t>
+  </si>
+  <si>
+    <t>AdminRoute</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>SubstanceCompoundInfusionData</t>
+  </si>
+  <si>
+    <t>SubstanceInfusionData</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>AnesthesiaMachineConfigurationData</t>
+  </si>
+  <si>
+    <t>OxygenTankPressureLossData</t>
+  </si>
+  <si>
+    <t>OxygenWallPortPressureLossData</t>
+  </si>
+  <si>
+    <t>ExpiratoryValveLeakData</t>
+  </si>
+  <si>
+    <t>ExpiratoryValveObstructionData</t>
+  </si>
+  <si>
+    <t>InspiratoryValveLeakData</t>
+  </si>
+  <si>
+    <t>InspiratoryValveObstructionData</t>
+  </si>
+  <si>
+    <t>MaskLeakData</t>
+  </si>
+  <si>
+    <t>SodaLimeFailureData</t>
+  </si>
+  <si>
+    <t>TubeCuffLeakData</t>
+  </si>
+  <si>
+    <t>VaporizerFailureData</t>
+  </si>
+  <si>
+    <t>VentilatorPressureLossData</t>
+  </si>
+  <si>
+    <t>YPieceDisconnectData</t>
+  </si>
+  <si>
+    <t>InhalerConfigurationData</t>
+  </si>
+  <si>
+    <t>EnvironmentChangeData</t>
+  </si>
+  <si>
+    <t>ThermalApplicationData</t>
+  </si>
+  <si>
+    <t>xsi:type</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>5-6-7-8-9-10-11-12-13</t>
+  </si>
+  <si>
+    <t>1-2-3-14-15-16</t>
+  </si>
+  <si>
+    <t>34-35-36-37</t>
+  </si>
+  <si>
+    <t>4-17-18-19-20-21-22-23-24-25-26-27-28-29-30-31-32-33-38-39-40-41-42-43-44-45-46-47-48-49-50-51-52-53-54-55-56-57-58-59-60</t>
+  </si>
+  <si>
+    <t>3-13-14-15-16-17</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>LeftKidneySeverity</t>
+  </si>
+  <si>
+    <t>RightKidneySeverity</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>ElapsedTime</t>
+  </si>
+  <si>
+    <t>14-87</t>
+  </si>
+  <si>
+    <t>ImpairedSurfaceArea</t>
+  </si>
+  <si>
+    <t>ImpairedFraction</t>
+  </si>
+  <si>
+    <t>RightLungAffected</t>
+  </si>
+  <si>
+    <t>LeftLungAffected</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -477,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -507,9 +771,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -518,6 +779,18 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,17 +1108,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCECE27-16FB-3848-A926-692BCDEB919C}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -873,10 +1148,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,28 +1163,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>123</v>
+      <c r="F3" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A40" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>123</v>
+      <c r="F4" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -915,13 +1193,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>127</v>
+      <c r="F5" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -930,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -942,13 +1220,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>115</v>
+      <c r="D7" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -969,13 +1250,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>127</v>
+      <c r="F9" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -984,25 +1265,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>124</v>
+      <c r="D11" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1011,13 +1301,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>104</v>
+      <c r="D12" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1026,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
         <v>10</v>
@@ -1038,10 +1328,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1050,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>10</v>
@@ -1062,478 +1355,592 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="C28" s="7">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="C29" s="7">
+        <v>10</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="C30" s="7">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C30" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7">
+        <v>10</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="C37" s="7">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="C38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="C39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="C40" s="7">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <f t="shared" ref="A41:A80" si="1">A40+1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="C41" s="7">
+        <v>10</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <f>A40+1</f>
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="C42" s="7">
+        <v>10</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <f>A41+1</f>
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="C43" s="7">
+        <v>10</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="7">
+        <v>10</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <f>A42+1</f>
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="C45" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C43" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <f>A43+1</f>
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <f>A44+1</f>
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <f>A45+1</f>
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="C46" s="7">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F46" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <f>A46+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <f>A47+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7">
         <v>44</v>
       </c>
+      <c r="D48" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <f>A48+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="7">
         <v>44</v>
       </c>
+      <c r="D49" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <f>A49+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="7">
         <v>44</v>
       </c>
+      <c r="F50" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <f>A50+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7">
         <v>44</v>
       </c>
+      <c r="D51" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <f>A51+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="7">
         <v>44</v>
       </c>
+      <c r="F52" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <f>A52+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="7">
         <v>44</v>
       </c>
+      <c r="D53" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <f>A53+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="7">
         <v>44</v>
       </c>
+      <c r="D54" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <f>A54+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="7">
         <v>44</v>
@@ -1541,11 +1948,11 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <f>A55+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="7">
         <v>44</v>
@@ -1553,23 +1960,26 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <f>A56+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <f>A57+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="7">
         <v>44</v>
@@ -1577,59 +1987,71 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <f>A58+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <f>A59+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="7">
         <v>57</v>
       </c>
+      <c r="D60" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <f>A60+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" s="7">
         <v>44</v>
       </c>
+      <c r="D61" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <f>A61+1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" s="7">
         <v>44</v>
       </c>
+      <c r="D62" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <f>A62+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" s="7">
         <v>10</v>
@@ -1637,161 +2059,164 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <f>A63+1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C64" s="7">
         <v>62</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>126</v>
+      <c r="D64" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <f>A64+1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" s="7">
         <v>62</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>104</v>
+      <c r="D65" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <f>A65+1</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C66" s="7">
         <v>62</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>104</v>
+      <c r="D66" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <f>A66+1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" s="7">
         <v>62</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>104</v>
+      <c r="D67" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <f>A67+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C68" s="7">
         <v>62</v>
       </c>
-      <c r="D68" s="14" t="s">
-        <v>104</v>
+      <c r="D68" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <f>A68+1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" s="7">
         <v>62</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>112</v>
+      <c r="D69" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <f>A69+1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="7">
         <v>62</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>104</v>
+      <c r="D70" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <f>A70+1</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" s="7">
         <v>62</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>112</v>
+      <c r="D71" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <f>A71+1</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" s="7">
         <v>62</v>
       </c>
-      <c r="D72" s="14" t="s">
-        <v>104</v>
+      <c r="D72" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <f>A72+1</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C73" s="7">
         <v>62</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>123</v>
+      <c r="D73" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
-        <f>A73+1</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C74" s="7">
         <v>10</v>
@@ -1799,35 +2224,41 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <f>A74+1</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
-        <f>A75+1</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <f>A76+1</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C77" s="7">
         <v>10</v>
@@ -1835,23 +2266,26 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
-        <f>A77+1</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C78" s="7">
         <v>76</v>
       </c>
+      <c r="D78" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
-        <f>A78+1</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C79" s="7">
         <v>10</v>
@@ -1859,146 +2293,218 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
-        <f>A79+1</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C80" s="7">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <f t="shared" ref="A81:A93" si="1">A80+1</f>
+        <f t="shared" ref="A81:A93" si="2">A80+1</f>
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>111</v>
+      <c r="B81" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C81" s="7">
         <v>9</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D81" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>113</v>
+      <c r="B82" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="C82" s="7">
         <v>9</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>114</v>
       </c>
       <c r="C83" s="7">
         <v>9</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D83" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C84" s="7">
         <v>9</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>129</v>
+      <c r="B85" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C85" s="7">
         <v>9</v>
       </c>
-      <c r="D85" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="7">
+        <v>9</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="7">
+        <v>9</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="7">
+        <v>9</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="7">
+        <v>9</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="7">
+        <v>9</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="7">
+        <v>9</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2012,18 +2518,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BAE11F-7594-9F4B-8174-013CD7DB327C}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="4.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
     <col min="4" max="4" width="33.33203125" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2031,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2041,731 +2548,806 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="7">
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7">
         <v>6</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="7">
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C12" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C13" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="B16" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="B17" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="B18" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="B19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="B20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="B21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="B22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="B23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="B24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="B25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="B26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="B27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="B28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="7">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="B29" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="B30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="7">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="B31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="B32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="B33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="7">
+        <v>10</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="B34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="B35" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="B36" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="B37" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="B38" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="B39" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="7">
+        <v>10</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="B40" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="7">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="B41" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="7">
+        <v>10</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="B42" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="B43" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="7">
+        <v>10</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="B44" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="B45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="7">
+        <v>10</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="B46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="B47" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="7">
+        <v>10</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="B48" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="7">
+        <v>10</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="B49" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="7">
+        <v>10</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="B50" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="7">
+        <v>10</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="B51" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="7">
+        <v>10</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="B52" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="7">
+        <v>10</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="B53" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="7">
+        <v>10</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="B54" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="7">
+        <v>10</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="B55" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="7">
+        <v>10</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="B56" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="7">
+        <v>10</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="B57" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="7">
+        <v>10</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="B58" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="7">
+        <v>10</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="B59" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="B60" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <f t="shared" ref="A68:A109" si="1">A67+1</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <f t="shared" si="1"/>
-        <v>108</v>
+      <c r="B61" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2777,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E14C76C-36E5-0747-A323-3E836357C284}">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2793,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2804,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2816,10 +3398,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2828,10 +3410,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2840,10 +3422,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2852,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2861,7 +3443,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2870,10 +3452,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2881,140 +3463,200 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="B12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3815,8 +4457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F487072B-0333-9A4D-B0E3-CB51C7568CAE}">
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3830,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3838,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3856,7 +4498,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3864,35 +4506,53 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
